--- a/Other/Config/Excel/Enemy.xlsx
+++ b/Other/Config/Excel/Enemy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -28,7 +28,10 @@
     <t xml:space="preserve">Enemy名</t>
   </si>
   <si>
-    <t xml:space="preserve">Enemy血量</t>
+    <t xml:space="preserve">Prefab路径</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI图路径</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -37,7 +40,10 @@
     <t xml:space="preserve">EnemyName</t>
   </si>
   <si>
-    <t xml:space="preserve">EnemyHP</t>
+    <t xml:space="preserve">Prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -46,13 +52,22 @@
     <t xml:space="preserve">string</t>
   </si>
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
     <t xml:space="preserve">Boss_LiHuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boss/Boss_LiHuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSM/LiHuoFSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boss_LiHuo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSM/LiHuoFSM2</t>
   </si>
 </sst>
 </file>
@@ -451,22 +466,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD6"/>
+  <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="0" width="11.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,17 +493,23 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="XFD1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="XFD2" s="2"/>
     </row>
@@ -501,37 +521,60 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="XFD4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="XFD5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>20001</v>
+        <v>35001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>200</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>35002</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Other/Config/Excel/Enemy.xlsx
+++ b/Other/Config/Excel/Enemy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -34,6 +34,51 @@
     <t xml:space="preserve">AI图路径</t>
   </si>
   <si>
+    <t xml:space="preserve">转身检查间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移动速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弹跳力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击距离</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComboAttackCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttackMoveSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoveCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeapAttackCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeapAttackMoveSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeapAttackRadius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StabDistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StabAttackCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StabAttackMoveSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StabAttackSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerTooFarRange</t>
+  </si>
+  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
@@ -46,12 +91,33 @@
     <t xml:space="preserve">Graph</t>
   </si>
   <si>
+    <t xml:space="preserve">CheckFaceFlipTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoveSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JumpForce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttackDistance</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector2[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector2</t>
+  </si>
+  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
@@ -64,10 +130,22 @@
     <t xml:space="preserve">FSM/LiHuoFSM</t>
   </si>
   <si>
+    <t xml:space="preserve">10,0;10,0;10,0;10,0;15,0;10,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65,0.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boss_LiHuo2</t>
   </si>
   <si>
     <t xml:space="preserve">FSM/LiHuoFSM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,0;10,0;10,0;10,0;15,0;10,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65,0.8</t>
   </si>
 </sst>
 </file>
@@ -77,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +189,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -192,7 +277,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,15 +290,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,18 +561,32 @@
   </sheetPr>
   <dimension ref="A1:XFD7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.05"/>
   </cols>
   <sheetData>
@@ -496,20 +603,110 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="XFD1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="XFD2" s="2"/>
     </row>
@@ -521,31 +718,121 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="XFD4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="XFD5" s="2"/>
     </row>
@@ -553,28 +840,118 @@
       <c r="A6" s="1" t="n">
         <v>35001</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
+      <c r="H6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>35002</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
+      <c r="H7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Other/Config/Excel/Enemy.xlsx
+++ b/Other/Config/Excel/Enemy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -79,6 +79,9 @@
     <t xml:space="preserve">PlayerTooFarRange</t>
   </si>
   <si>
+    <t xml:space="preserve">PrimaryAttackSkillPath</t>
+  </si>
+  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
@@ -134,6 +137,27 @@
   </si>
   <si>
     <t xml:space="preserve">4.65,0.7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Skill/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="NSimSun"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">LiHuoPrimaryAttackSkill</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Boss_LiHuo2</t>
@@ -155,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +236,12 @@
       <name val="NSimSun"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF2B91AF"/>
+      <name val="NSimSun"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -277,7 +307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -290,6 +320,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,7 +332,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,7 +404,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFA6A6A6"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF2B91AF"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -561,10 +595,10 @@
   </sheetPr>
   <dimension ref="A1:XFD7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="R9" activeCellId="0" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,20 +607,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.05"/>
   </cols>
   <sheetData>
@@ -648,32 +683,35 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -707,6 +745,9 @@
       </c>
       <c r="S2" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="XFD2" s="2"/>
     </row>
@@ -718,121 +759,127 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="S4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="XFD4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>32</v>
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="XFD5" s="2"/>
     </row>
@@ -840,118 +887,124 @@
       <c r="A6" s="1" t="n">
         <v>35001</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="1" t="n">
         <v>40</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="S6" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>35002</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Other/Config/Excel/Enemy.xlsx
+++ b/Other/Config/Excel/Enemy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>PrimaryAttackSkillPath</t>
+  </si>
+  <si>
+    <t>LeapAttackSkillPath</t>
+  </si>
+  <si>
+    <t>StabAttackSkillPath</t>
   </si>
   <si>
     <t>Id</t>
@@ -166,6 +172,12 @@
     </r>
   </si>
   <si>
+    <t>Skill/LiHuoLeapAttackSkill</t>
+  </si>
+  <si>
+    <t>Skill/LiHuoStabAttackSkill</t>
+  </si>
+  <si>
     <t>Boss_LiHuo2</t>
   </si>
   <si>
@@ -179,6 +191,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>Skill/</t>
     </r>
     <r>
@@ -1229,13 +1247,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1414,10 +1425,10 @@
   <sheetPr/>
   <dimension ref="A1:XFD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1441,6 +1452,8 @@
     <col min="18" max="18" width="14.35" style="1" customWidth="1"/>
     <col min="19" max="19" width="17.35" style="1" customWidth="1"/>
     <col min="20" max="20" width="25.0083333333333" customWidth="1"/>
+    <col min="21" max="21" width="22.75" customWidth="1"/>
+    <col min="22" max="22" width="22.5" customWidth="1"/>
     <col min="16383" max="16384" width="11.05" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1505,32 +1518,38 @@
       <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
       <c r="XFD1" s="2"/>
     </row>
     <row r="2" spans="1:16384">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -1567,6 +1586,12 @@
       </c>
       <c r="T2" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
       </c>
       <c r="XFD2" s="2"/>
     </row>
@@ -1578,142 +1603,154 @@
     </row>
     <row r="4" spans="1:16384">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>29</v>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
       </c>
       <c r="XFD4" s="2"/>
     </row>
     <row r="5" ht="15" spans="1:16384">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="XFD5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>35001</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <v>0.7</v>
@@ -1731,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
@@ -1755,13 +1792,19 @@
         <v>40</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S6" s="1">
         <v>7</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1769,13 +1812,13 @@
         <v>35002</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>0.7</v>
@@ -1793,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K7" s="1">
         <v>10</v>
@@ -1817,13 +1860,13 @@
         <v>40</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="S7" s="1">
         <v>7</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1831,13 +1874,13 @@
         <v>35003</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1">
         <v>0.7</v>
@@ -1858,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Other/Config/Excel/Enemy.xlsx
+++ b/Other/Config/Excel/Enemy.xlsx
@@ -426,13 +426,13 @@
       <sz val="9.5"/>
       <color rgb="FF2B91AF"/>
       <name val="NSimSun"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF2B91AF"/>
       <name val="NSimSun"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1425,10 +1425,10 @@
   <sheetPr/>
   <dimension ref="A1:XFD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14.25" outlineLevelRow="7"/>

--- a/Other/Config/Excel/Enemy.xlsx
+++ b/Other/Config/Excel/Enemy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -77,6 +77,9 @@
     <t>StabAttackCD</t>
   </si>
   <si>
+    <t>WithdrawAttackCD</t>
+  </si>
+  <si>
     <t>StabAttackMoveSpeed</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
   </si>
   <si>
     <t>StabAttackSkillPath</t>
+  </si>
+  <si>
+    <t>WithdrawAttackSkillPath</t>
   </si>
   <si>
     <t>Id</t>
@@ -178,6 +184,9 @@
     <t>Skill/LiHuoStabAttackSkill</t>
   </si>
   <si>
+    <t>Skill/LiHuoWithdrawAttackSkill</t>
+  </si>
+  <si>
     <t>Boss_LiHuo2</t>
   </si>
   <si>
@@ -426,13 +435,13 @@
       <sz val="9.5"/>
       <color rgb="FF2B91AF"/>
       <name val="NSimSun"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF2B91AF"/>
       <name val="NSimSun"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1425,10 +1434,10 @@
   <sheetPr/>
   <dimension ref="A1:XFD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1449,11 +1458,13 @@
     <col min="15" max="15" width="12.5833333333333" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.5916666666667" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.65" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.35" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="17.35" style="1" customWidth="1"/>
     <col min="20" max="20" width="25.0083333333333" customWidth="1"/>
     <col min="21" max="21" width="22.75" customWidth="1"/>
     <col min="22" max="22" width="22.5" customWidth="1"/>
+    <col min="23" max="23" width="26.5" customWidth="1"/>
+    <col min="24" max="24" width="26.375" customWidth="1"/>
     <col min="16383" max="16384" width="11.05" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1515,41 +1526,47 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
       </c>
       <c r="XFD1" s="2"/>
     </row>
     <row r="2" spans="1:16384">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -1584,14 +1601,20 @@
       <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="V2" t="s">
         <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
       </c>
       <c r="XFD2" s="2"/>
     </row>
@@ -1599,158 +1622,171 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
+      <c r="T3" s="1"/>
       <c r="XFD3" s="2"/>
     </row>
     <row r="4" spans="1:16384">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" t="s">
-        <v>31</v>
-      </c>
       <c r="V4" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
+        <v>33</v>
       </c>
       <c r="XFD4" s="2"/>
     </row>
     <row r="5" ht="15" spans="1:16384">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="XFD5" s="2"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>35001</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
         <v>0.7</v>
@@ -1762,13 +1798,13 @@
         <v>12</v>
       </c>
       <c r="H6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
@@ -1783,42 +1819,48 @@
         <v>2.6</v>
       </c>
       <c r="O6" s="1">
+        <v>7</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
         <v>10</v>
       </c>
-      <c r="P6" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>40</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="1">
         <v>7</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="U6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>35002</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
         <v>0.7</v>
@@ -1830,13 +1872,13 @@
         <v>12</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K7" s="1">
         <v>10</v>
@@ -1851,36 +1893,48 @@
         <v>2.6</v>
       </c>
       <c r="O7" s="1">
+        <v>7</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1">
         <v>10</v>
       </c>
-      <c r="P7" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>40</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="S7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="1">
         <v>7</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>48</v>
+      <c r="U7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>35003</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1">
         <v>0.7</v>
@@ -1900,8 +1954,8 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="T8" s="7" t="s">
-        <v>52</v>
+      <c r="U8" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
